--- a/Chit_Chat/Probability_Gate_2022_BOM.xlsx
+++ b/Chit_Chat/Probability_Gate_2022_BOM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>Qty</t>
   </si>
@@ -76,9 +76,6 @@
     <t>820k</t>
   </si>
   <si>
-    <t>20k</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
@@ -103,15 +100,9 @@
     <t>TL074</t>
   </si>
   <si>
-    <t>CD4093</t>
-  </si>
-  <si>
     <t>U10</t>
   </si>
   <si>
-    <t>CD4013</t>
-  </si>
-  <si>
     <t>U11</t>
   </si>
   <si>
@@ -184,9 +175,6 @@
     <t>By L.Geerinckx</t>
   </si>
   <si>
-    <t>Document Version 04/01/2023</t>
-  </si>
-  <si>
     <t>PCB version: 1.0</t>
   </si>
   <si>
@@ -208,12 +196,6 @@
     <t>Tayda</t>
   </si>
   <si>
-    <t>A-496</t>
-  </si>
-  <si>
-    <t>A-497</t>
-  </si>
-  <si>
     <t>3mm LED's bright</t>
   </si>
   <si>
@@ -238,12 +220,6 @@
     <t>A-5623</t>
   </si>
   <si>
-    <t>IDC Shrouded Box Header</t>
-  </si>
-  <si>
-    <t>Connector_IDC:IDC-Header_2x05_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>A-2939</t>
   </si>
   <si>
@@ -260,6 +236,33 @@
   </si>
   <si>
     <t>1N5817 or 1N5819, etc</t>
+  </si>
+  <si>
+    <t>HEF4093</t>
+  </si>
+  <si>
+    <t>HEF4013</t>
+  </si>
+  <si>
+    <t>Can alsobe CD4013 (not tested)</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>Shrouded IDC doesn't really fit</t>
+  </si>
+  <si>
+    <t>Male Pin headers 2x05_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Must be HEF4093. The CD… version has different thresholds for schmitt trigger</t>
+  </si>
+  <si>
+    <t>Document Version 03/02/2023</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1145,7 @@
   <dimension ref="A3:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,31 +1160,31 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1201,10 +1204,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1218,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1228,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1244,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1253,7 +1256,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -1262,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1271,7 +1274,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -1280,16 +1283,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -1298,17 +1301,17 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1319,14 +1322,14 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1334,13 +1337,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1350,13 +1353,13 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1366,13 +1369,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1382,13 +1385,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1398,13 +1401,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1414,13 +1417,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1430,13 +1433,13 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1446,16 +1449,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -1464,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -1482,16 +1485,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -1500,52 +1503,52 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -1554,34 +1557,36 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2"/>
     </row>
